--- a/Sample Docs/Courses.xlsx
+++ b/Sample Docs/Courses.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vamsi\Desktop\GIT\Resonance\Sample Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vamsi\Downloads\Data_v3\Data_v3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68BEED8E-4826-43CE-A578-EACA7168E7D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{424B14A8-27BE-469E-9F8A-082578E3E178}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>Name</t>
   </si>
@@ -33,13 +33,16 @@
     <t>Thumbnail</t>
   </si>
   <si>
-    <t>Class 11/NEET</t>
-  </si>
-  <si>
-    <t>Class 12/NEET</t>
-  </si>
-  <si>
     <t>NA</t>
+  </si>
+  <si>
+    <t>HighSchool</t>
+  </si>
+  <si>
+    <t>JEE</t>
+  </si>
+  <si>
+    <t>NEET</t>
   </si>
 </sst>
 </file>
@@ -64,6 +67,7 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,11 +109,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -392,17 +402,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABA60C42-192B-42B6-8955-A59C8530898C}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
     <col min="2" max="2" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.21875" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -416,21 +426,45 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
         <v>4</v>
       </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="3"/>
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
